--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N2">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q2">
-        <v>8496.124731139991</v>
+        <v>103.1610347862811</v>
       </c>
       <c r="R2">
-        <v>76465.12258025992</v>
+        <v>928.4493130765301</v>
       </c>
       <c r="S2">
-        <v>0.1696546448005808</v>
+        <v>0.005226930408215019</v>
       </c>
       <c r="T2">
-        <v>0.1696546448005809</v>
+        <v>0.005226930408215019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P3">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q3">
-        <v>15316.38317073069</v>
+        <v>329.5870685833765</v>
       </c>
       <c r="R3">
-        <v>137847.4485365762</v>
+        <v>2966.283617250389</v>
       </c>
       <c r="S3">
-        <v>0.3058447973269396</v>
+        <v>0.01669941247198499</v>
       </c>
       <c r="T3">
-        <v>0.3058447973269396</v>
+        <v>0.01669941247198499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q4">
-        <v>4114.83488945048</v>
+        <v>88.545471460276</v>
       </c>
       <c r="R4">
-        <v>37033.51400505432</v>
+        <v>796.909243142484</v>
       </c>
       <c r="S4">
-        <v>0.08216697302289828</v>
+        <v>0.004486393707122839</v>
       </c>
       <c r="T4">
-        <v>0.08216697302289828</v>
+        <v>0.004486393707122838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N5">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q5">
-        <v>3803.012730730996</v>
+        <v>2145.895891392469</v>
       </c>
       <c r="R5">
-        <v>34227.11457657896</v>
+        <v>19313.06302253223</v>
       </c>
       <c r="S5">
-        <v>0.07594036039036386</v>
+        <v>0.1087275686097964</v>
       </c>
       <c r="T5">
-        <v>0.07594036039036386</v>
+        <v>0.1087275686097964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P6">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q6">
         <v>6855.87865412931</v>
@@ -818,10 +818,10 @@
         <v>61702.90788716379</v>
       </c>
       <c r="S6">
-        <v>0.1369014338500803</v>
+        <v>0.3473714730231293</v>
       </c>
       <c r="T6">
-        <v>0.1369014338500803</v>
+        <v>0.3473714730231293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q7">
         <v>1841.871437230716</v>
@@ -880,10 +880,10 @@
         <v>16576.84293507644</v>
       </c>
       <c r="S7">
-        <v>0.03677936169020724</v>
+        <v>0.09332335453234733</v>
       </c>
       <c r="T7">
-        <v>0.03677936169020724</v>
+        <v>0.09332335453234734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N8">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q8">
-        <v>2936.000427593524</v>
+        <v>1656.673721806989</v>
       </c>
       <c r="R8">
-        <v>26424.00384834172</v>
+        <v>14910.0634962629</v>
       </c>
       <c r="S8">
-        <v>0.05862744785891321</v>
+        <v>0.08393981575449706</v>
       </c>
       <c r="T8">
-        <v>0.05862744785891322</v>
+        <v>0.08393981575449708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P9">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q9">
         <v>5292.872805130974</v>
@@ -1004,10 +1004,10 @@
         <v>47635.85524617877</v>
       </c>
       <c r="S9">
-        <v>0.1056905923753621</v>
+        <v>0.2681775911735282</v>
       </c>
       <c r="T9">
-        <v>0.1056905923753621</v>
+        <v>0.2681775911735282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q10">
         <v>1421.96087948468</v>
@@ -1066,10 +1066,10 @@
         <v>12797.64791536212</v>
       </c>
       <c r="S10">
-        <v>0.02839438868465454</v>
+        <v>0.07204746031937881</v>
       </c>
       <c r="T10">
-        <v>0.02839438868465454</v>
+        <v>0.07204746031937881</v>
       </c>
     </row>
   </sheetData>
